--- a/output/Table 4.xlsx
+++ b/output/Table 4.xlsx
@@ -39,12 +39,12 @@
     <t>Both sexes</t>
   </si>
   <si>
+    <t>Males</t>
+  </si>
+  <si>
     <t>Females</t>
   </si>
   <si>
-    <t>Males</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -54,10 +54,10 @@
     <t>0-5</t>
   </si>
   <si>
+    <t>5-14</t>
+  </si>
+  <si>
     <t>15-49</t>
-  </si>
-  <si>
-    <t>5-14</t>
   </si>
   <si>
     <t>50-69</t>
@@ -185,16 +185,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -208,16 +208,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -254,16 +254,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G6" s="0">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -277,16 +277,16 @@
         <v>14</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -372,13 +372,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -395,13 +395,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -438,13 +438,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G14" s="0">
         <v>31</v>
@@ -461,13 +461,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0">
         <v>31</v>
@@ -553,16 +553,16 @@
         <v>11</v>
       </c>
       <c r="D19" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="0">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F19" s="0">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G19" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -576,16 +576,16 @@
         <v>11</v>
       </c>
       <c r="D20" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="0">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F20" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" s="0">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -622,16 +622,16 @@
         <v>13</v>
       </c>
       <c r="D22" s="0">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="F22" s="0">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G22" s="0">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -645,16 +645,16 @@
         <v>14</v>
       </c>
       <c r="D23" s="0">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="E23" s="0">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="F23" s="0">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G23" s="0">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>

--- a/output/Table 4.xlsx
+++ b/output/Table 4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Cause</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Maternal &amp; neonatal</t>
+  </si>
+  <si>
+    <t>Respiratory infections</t>
   </si>
   <si>
     <t>Neoplasms</t>
@@ -140,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -148,28 +151,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -293,28 +296,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>-24.100000381469727</v>
+        <v>-36.599998474121094</v>
       </c>
       <c r="C6" s="0">
-        <v>-23.899999618530273</v>
+        <v>-32.5</v>
       </c>
       <c r="D6" s="0">
-        <v>-24.200000762939453</v>
+        <v>-39</v>
       </c>
       <c r="E6" s="0">
-        <v>-26.700000762939453</v>
+        <v>-34.299999237060547</v>
       </c>
       <c r="F6" s="0">
-        <v>-30.5</v>
+        <v>-54.400001525878906</v>
       </c>
       <c r="G6" s="0">
-        <v>-19.399999618530273</v>
+        <v>-20.700000762939453</v>
       </c>
       <c r="H6" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -322,28 +325,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>-53.299999237060547</v>
+        <v>-24.100000381469727</v>
       </c>
       <c r="C7" s="0">
-        <v>-38.5</v>
+        <v>-23.899999618530273</v>
       </c>
       <c r="D7" s="0">
-        <v>-56.599998474121094</v>
+        <v>-24.200000762939453</v>
       </c>
       <c r="E7" s="0">
-        <v>-61.099998474121094</v>
+        <v>-26.700000762939453</v>
       </c>
       <c r="F7" s="0">
-        <v>-59.299999237060547</v>
+        <v>-30.5</v>
       </c>
       <c r="G7" s="0">
-        <v>-48.599998474121094</v>
+        <v>-19.399999618530273</v>
       </c>
       <c r="H7" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -351,28 +354,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>-14.199999809265137</v>
+        <v>-53.299999237060547</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6999998092651367</v>
+        <v>-38.5</v>
       </c>
       <c r="D8" s="0">
-        <v>-25.600000381469727</v>
+        <v>-56.599998474121094</v>
       </c>
       <c r="E8" s="0">
-        <v>-31.299999237060547</v>
+        <v>-61.099998474121094</v>
       </c>
       <c r="F8" s="0">
-        <v>-44.099998474121094</v>
+        <v>-59.299999237060547</v>
       </c>
       <c r="G8" s="0">
-        <v>-6.4000000953674316</v>
+        <v>-48.599998474121094</v>
       </c>
       <c r="H8" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -380,28 +383,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>-17.200000762939453</v>
+        <v>-14.199999809265137</v>
       </c>
       <c r="C9" s="0">
-        <v>-10.300000190734863</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="D9" s="0">
-        <v>-30.899999618530273</v>
+        <v>-25.600000381469727</v>
       </c>
       <c r="E9" s="0">
-        <v>-22.799999237060547</v>
+        <v>-31.299999237060547</v>
       </c>
       <c r="F9" s="0">
-        <v>-46</v>
+        <v>-44.099998474121094</v>
       </c>
       <c r="G9" s="0">
-        <v>-25.700000762939453</v>
+        <v>-6.4000000953674316</v>
       </c>
       <c r="H9" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I9" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -409,25 +412,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>-2.0999999046325684</v>
+        <v>-17.200000762939453</v>
       </c>
       <c r="C10" s="0">
-        <v>-1.1000000238418579</v>
+        <v>-10.300000190734863</v>
       </c>
       <c r="D10" s="0">
-        <v>1.2000000476837158</v>
+        <v>-30.899999618530273</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.30000001192092896</v>
+        <v>-22.799999237060547</v>
       </c>
       <c r="F10" s="0">
-        <v>4.0999999046325684</v>
+        <v>-46</v>
       </c>
       <c r="G10" s="0">
-        <v>2.5999999046325684</v>
+        <v>-25.700000762939453</v>
       </c>
       <c r="H10" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="0">
         <v>20</v>
@@ -438,28 +441,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.69999998807907104</v>
+        <v>-2.0999999046325684</v>
       </c>
       <c r="C11" s="0">
-        <v>10.5</v>
+        <v>-1.1000000238418579</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.40000000596046448</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="E11" s="0">
-        <v>3.2999999523162842</v>
+        <v>-0.30000001192092896</v>
       </c>
       <c r="F11" s="0">
-        <v>0.40000000596046448</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="G11" s="0">
-        <v>-2.0999999046325684</v>
+        <v>2.5999999046325684</v>
       </c>
       <c r="H11" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I11" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -467,28 +470,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>94.599998474121094</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="C12" s="0">
-        <v>161.39999389648438</v>
+        <v>10.5</v>
       </c>
       <c r="D12" s="0">
-        <v>14.199999809265137</v>
+        <v>-0.40000000596046448</v>
       </c>
       <c r="E12" s="0">
-        <v>31.899999618530273</v>
+        <v>3.2999999523162842</v>
       </c>
       <c r="F12" s="0">
-        <v>-2.7000000476837158</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="G12" s="0">
-        <v>-5.9000000953674316</v>
+        <v>-2.0999999046325684</v>
       </c>
       <c r="H12" s="0">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -496,28 +499,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>14.600000381469727</v>
+        <v>94.599998474121094</v>
       </c>
       <c r="C13" s="0">
-        <v>33.5</v>
+        <v>161.39999389648438</v>
       </c>
       <c r="D13" s="0">
-        <v>7.3000001907348633</v>
+        <v>14.199999809265137</v>
       </c>
       <c r="E13" s="0">
-        <v>13.300000190734863</v>
+        <v>31.899999618530273</v>
       </c>
       <c r="F13" s="0">
-        <v>-13.899999618530273</v>
+        <v>-2.7000000476837158</v>
       </c>
       <c r="G13" s="0">
-        <v>12.5</v>
+        <v>-5.9000000953674316</v>
       </c>
       <c r="H13" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I13" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -525,28 +528,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0.5</v>
+        <v>14.600000381469727</v>
       </c>
       <c r="C14" s="0">
-        <v>-4.1999998092651367</v>
+        <v>33.5</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="E14" s="0">
-        <v>0.10000000149011612</v>
+        <v>13.300000190734863</v>
       </c>
       <c r="F14" s="0">
-        <v>2.4000000953674316</v>
+        <v>-13.899999618530273</v>
       </c>
       <c r="G14" s="0">
-        <v>4.3000001907348633</v>
+        <v>12.5</v>
       </c>
       <c r="H14" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -554,28 +557,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>-5</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="0">
-        <v>-1.3999999761581421</v>
+        <v>-4.1999998092651367</v>
       </c>
       <c r="D15" s="0">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>-5.6999998092651367</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="F15" s="0">
-        <v>-5.3000001907348633</v>
+        <v>2.4000000953674316</v>
       </c>
       <c r="G15" s="0">
-        <v>-7.3000001907348633</v>
+        <v>4.3000001907348633</v>
       </c>
       <c r="H15" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -583,28 +586,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>7.3000001907348633</v>
+        <v>-5</v>
       </c>
       <c r="C16" s="0">
-        <v>6.3000001907348633</v>
+        <v>-1.3999999761581421</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.80000001192092896</v>
+        <v>-6</v>
       </c>
       <c r="E16" s="0">
-        <v>0.69999998807907104</v>
+        <v>-5.6999998092651367</v>
       </c>
       <c r="F16" s="0">
-        <v>-1.2000000476837158</v>
+        <v>-5.3000001907348633</v>
       </c>
       <c r="G16" s="0">
-        <v>5</v>
+        <v>-7.3000001907348633</v>
       </c>
       <c r="H16" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I16" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -612,28 +615,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>-23.399999618530273</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="C17" s="0">
-        <v>-21.200000762939453</v>
+        <v>6.3000001907348633</v>
       </c>
       <c r="D17" s="0">
-        <v>-23.899999618530273</v>
+        <v>-0.80000001192092896</v>
       </c>
       <c r="E17" s="0">
-        <v>-31.399999618530273</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="F17" s="0">
-        <v>-29.200000762939453</v>
+        <v>-1.2000000476837158</v>
       </c>
       <c r="G17" s="0">
-        <v>-17.200000762939453</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I17" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -641,28 +644,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>-54.599998474121094</v>
+        <v>-23.399999618530273</v>
       </c>
       <c r="C18" s="0">
-        <v>-39.700000762939453</v>
+        <v>-21.200000762939453</v>
       </c>
       <c r="D18" s="0">
-        <v>-65.199996948242188</v>
+        <v>-23.899999618530273</v>
       </c>
       <c r="E18" s="0">
-        <v>-62</v>
+        <v>-31.399999618530273</v>
       </c>
       <c r="F18" s="0">
-        <v>-70.300003051757812</v>
+        <v>-29.200000762939453</v>
       </c>
       <c r="G18" s="0">
-        <v>-14.5</v>
+        <v>-17.200000762939453</v>
       </c>
       <c r="H18" s="0">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -670,28 +673,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>-18.299999237060547</v>
+        <v>-54.599998474121094</v>
       </c>
       <c r="C19" s="0">
-        <v>-18.299999237060547</v>
+        <v>-39.700000762939453</v>
       </c>
       <c r="D19" s="0">
-        <v>-22.100000381469727</v>
+        <v>-65.199996948242188</v>
       </c>
       <c r="E19" s="0">
-        <v>-8.1999998092651367</v>
+        <v>-62</v>
       </c>
       <c r="F19" s="0">
-        <v>-31.5</v>
+        <v>-70.300003051757812</v>
       </c>
       <c r="G19" s="0">
-        <v>-39.400001525878906</v>
+        <v>-14.5</v>
       </c>
       <c r="H19" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I19" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -699,27 +702,56 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
+        <v>-18.299999237060547</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-18.299999237060547</v>
+      </c>
+      <c r="D20" s="0">
+        <v>-22.100000381469727</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-8.1999998092651367</v>
+      </c>
+      <c r="F20" s="0">
+        <v>-31.5</v>
+      </c>
+      <c r="G20" s="0">
+        <v>-39.400001525878906</v>
+      </c>
+      <c r="H20" s="0">
+        <v>6</v>
+      </c>
+      <c r="I20" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0">
         <v>-20</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C21" s="0">
         <v>-22.200000762939453</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D21" s="0">
         <v>-36.900001525878906</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E21" s="0">
         <v>-21.600000381469727</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F21" s="0">
         <v>1.7000000476837158</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G21" s="0">
         <v>-10.399999618530273</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H21" s="0">
         <v>22</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I21" s="0">
         <v>26</v>
       </c>
     </row>

--- a/output/Table 4.xlsx
+++ b/output/Table 4.xlsx
@@ -180,22 +180,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-22.959999084472656</v>
+        <v>-23</v>
       </c>
       <c r="C2" s="0">
-        <v>-36.720001220703125</v>
+        <v>-36.700000762939453</v>
       </c>
       <c r="D2" s="0">
-        <v>-40.830001831054688</v>
+        <v>-40.799999237060547</v>
       </c>
       <c r="E2" s="0">
-        <v>-39.590000152587891</v>
+        <v>-39.599998474121094</v>
       </c>
       <c r="F2" s="0">
-        <v>-51.720001220703125</v>
+        <v>-51.700000762939453</v>
       </c>
       <c r="G2" s="0">
-        <v>-43.180000305175781</v>
+        <v>-43.200000762939453</v>
       </c>
       <c r="H2" s="0">
         <v>10</v>
@@ -209,22 +209,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>-16.540000915527344</v>
+        <v>-16.5</v>
       </c>
       <c r="C3" s="0">
-        <v>-5.9099998474121094</v>
+        <v>-5.9000000953674316</v>
       </c>
       <c r="D3" s="0">
-        <v>-22.569999694824219</v>
+        <v>-22.600000381469727</v>
       </c>
       <c r="E3" s="0">
-        <v>-23.709999084472656</v>
+        <v>-23.700000762939453</v>
       </c>
       <c r="F3" s="0">
         <v>-27.200000762939453</v>
       </c>
       <c r="G3" s="0">
-        <v>-19.190000534057617</v>
+        <v>-19.200000762939453</v>
       </c>
       <c r="H3" s="0">
         <v>8</v>
@@ -238,22 +238,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>-31.350000381469727</v>
+        <v>-31.399999618530273</v>
       </c>
       <c r="C4" s="0">
-        <v>-26.790000915527344</v>
+        <v>-26.799999237060547</v>
       </c>
       <c r="D4" s="0">
-        <v>-40.130001068115234</v>
+        <v>-40.099998474121094</v>
       </c>
       <c r="E4" s="0">
-        <v>-27.620000839233398</v>
+        <v>-27.600000381469727</v>
       </c>
       <c r="F4" s="0">
-        <v>-36.520000457763672</v>
+        <v>-36.5</v>
       </c>
       <c r="G4" s="0">
-        <v>-26.770000457763672</v>
+        <v>-26.799999237060547</v>
       </c>
       <c r="H4" s="0">
         <v>17</v>
